--- a/contratos/contratos-8-2016.xlsx
+++ b/contratos/contratos-8-2016.xlsx
@@ -799,7 +799,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -1045,7 +1045,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>SARJANOVICH ANDRES</t>
@@ -1078,7 +1078,7 @@
     <t>NESTOR SIGOT S.A.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1591,682 +1591,682 @@
     <t>182</t>
   </si>
   <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>5.360,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>3.360,00</t>
-  </si>
-  <si>
-    <t>3.000,01</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>200.000,00</t>
-  </si>
-  <si>
-    <t>204,00</t>
-  </si>
-  <si>
-    <t>245,50</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>98.000,00</t>
-  </si>
-  <si>
-    <t>4.660,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>79.500,00</t>
-  </si>
-  <si>
-    <t>7.031,50</t>
-  </si>
-  <si>
-    <t>440.638,54</t>
-  </si>
-  <si>
-    <t>248.703,84</t>
-  </si>
-  <si>
-    <t>7.001,50</t>
-  </si>
-  <si>
-    <t>31.991,44</t>
-  </si>
-  <si>
-    <t>13.120,00</t>
-  </si>
-  <si>
-    <t>559,60</t>
-  </si>
-  <si>
-    <t>10.105,00</t>
-  </si>
-  <si>
-    <t>39.250,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>23.411,99</t>
-  </si>
-  <si>
-    <t>19.476,00</t>
-  </si>
-  <si>
-    <t>60.750,00</t>
-  </si>
-  <si>
-    <t>25.377,73</t>
-  </si>
-  <si>
-    <t>36.209,35</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>144,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>947,20</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>52.670,18</t>
-  </si>
-  <si>
-    <t>22.451,25</t>
-  </si>
-  <si>
-    <t>331,24</t>
-  </si>
-  <si>
-    <t>1.910,00</t>
-  </si>
-  <si>
-    <t>1.130,85</t>
-  </si>
-  <si>
-    <t>5.375,00</t>
-  </si>
-  <si>
-    <t>26.100,00</t>
-  </si>
-  <si>
-    <t>73.620,70</t>
-  </si>
-  <si>
-    <t>4.287,97</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>75.870,93</t>
-  </si>
-  <si>
-    <t>11.757,60</t>
-  </si>
-  <si>
-    <t>186,00</t>
-  </si>
-  <si>
-    <t>4.788,20</t>
-  </si>
-  <si>
-    <t>5.579,00</t>
-  </si>
-  <si>
-    <t>7.167,54</t>
-  </si>
-  <si>
-    <t>732,26</t>
-  </si>
-  <si>
-    <t>44.398,00</t>
-  </si>
-  <si>
-    <t>24,06</t>
-  </si>
-  <si>
-    <t>343.200,00</t>
-  </si>
-  <si>
-    <t>4.701,80</t>
-  </si>
-  <si>
-    <t>3.201,18</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>3.374,00</t>
-  </si>
-  <si>
-    <t>6.049,00</t>
-  </si>
-  <si>
-    <t>5.680,51</t>
-  </si>
-  <si>
-    <t>2.436,53</t>
-  </si>
-  <si>
-    <t>1.310,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>22.650,00</t>
-  </si>
-  <si>
-    <t>5.534,44</t>
-  </si>
-  <si>
-    <t>1.432,00</t>
-  </si>
-  <si>
-    <t>5.280,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>5.874,33</t>
-  </si>
-  <si>
-    <t>54.410,00</t>
-  </si>
-  <si>
-    <t>2.570,00</t>
-  </si>
-  <si>
-    <t>14.999,85</t>
-  </si>
-  <si>
-    <t>848,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>52.540,00</t>
-  </si>
-  <si>
-    <t>25.128,32</t>
-  </si>
-  <si>
-    <t>4,12</t>
-  </si>
-  <si>
-    <t>9.690,00</t>
-  </si>
-  <si>
-    <t>385,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>4.360,00</t>
-  </si>
-  <si>
-    <t>19.045,00</t>
-  </si>
-  <si>
-    <t>172,80</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>14.908,98</t>
-  </si>
-  <si>
-    <t>5.289,00</t>
-  </si>
-  <si>
-    <t>351,48</t>
-  </si>
-  <si>
-    <t>12.053,82</t>
-  </si>
-  <si>
-    <t>3,54</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>39,69</t>
-  </si>
-  <si>
-    <t>80,32</t>
-  </si>
-  <si>
-    <t>29.752,96</t>
-  </si>
-  <si>
-    <t>288,00</t>
-  </si>
-  <si>
-    <t>7.339,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>1.567,23</t>
-  </si>
-  <si>
-    <t>2.929,87</t>
-  </si>
-  <si>
-    <t>3.912,60</t>
-  </si>
-  <si>
-    <t>4.760,00</t>
-  </si>
-  <si>
-    <t>18.971,98</t>
-  </si>
-  <si>
-    <t>2.960,00</t>
-  </si>
-  <si>
-    <t>431,22</t>
-  </si>
-  <si>
-    <t>7.070,00</t>
-  </si>
-  <si>
-    <t>2.240,00</t>
-  </si>
-  <si>
-    <t>2.682,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>32.751,00</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>16.053,06</t>
-  </si>
-  <si>
-    <t>6.106,00</t>
-  </si>
-  <si>
-    <t>2.761,14</t>
-  </si>
-  <si>
-    <t>2.639,20</t>
-  </si>
-  <si>
-    <t>771,05</t>
-  </si>
-  <si>
-    <t>324,00</t>
-  </si>
-  <si>
-    <t>321,00</t>
-  </si>
-  <si>
-    <t>134,10</t>
-  </si>
-  <si>
-    <t>7.100,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>1.008,70</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>237,00</t>
-  </si>
-  <si>
-    <t>255,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>34.700,00</t>
-  </si>
-  <si>
-    <t>6.486,00</t>
-  </si>
-  <si>
-    <t>5.483,00</t>
-  </si>
-  <si>
-    <t>6.910,00</t>
-  </si>
-  <si>
-    <t>2.328,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>114.100,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.917,61</t>
-  </si>
-  <si>
-    <t>240,68</t>
-  </si>
-  <si>
-    <t>6.076,00</t>
-  </si>
-  <si>
-    <t>2.044.680,00</t>
-  </si>
-  <si>
-    <t>35.943,70</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>32.505,44</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.204,50</t>
-  </si>
-  <si>
-    <t>2.556,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>17.874,50</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>19.810,53</t>
-  </si>
-  <si>
-    <t>6.570,00</t>
-  </si>
-  <si>
-    <t>32.280,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>585,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>7.440,00</t>
-  </si>
-  <si>
-    <t>57.218,80</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>2.953,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>1.025,00</t>
-  </si>
-  <si>
-    <t>85.800,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.521,30</t>
-  </si>
-  <si>
-    <t>14.600,00</t>
-  </si>
-  <si>
-    <t>12.950,00</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>67,29</t>
-  </si>
-  <si>
-    <t>4.670,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>2.422,00</t>
-  </si>
-  <si>
-    <t>3.453,00</t>
-  </si>
-  <si>
-    <t>6.791,00</t>
-  </si>
-  <si>
-    <t>12.133,00</t>
-  </si>
-  <si>
-    <t>7.300,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>4.471,60</t>
-  </si>
-  <si>
-    <t>428,16</t>
-  </si>
-  <si>
-    <t>67.743,12</t>
-  </si>
-  <si>
-    <t>359,16</t>
-  </si>
-  <si>
-    <t>3.760,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>122.826,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>44.301,25</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>9.138,38</t>
-  </si>
-  <si>
-    <t>4.140.213,30</t>
-  </si>
-  <si>
-    <t>10.892,91</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>83.100,00</t>
-  </si>
-  <si>
-    <t>230.000,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>245.000,00</t>
-  </si>
-  <si>
-    <t>315.000,00</t>
-  </si>
-  <si>
-    <t>155.000,00</t>
-  </si>
-  <si>
-    <t>70.950,35</t>
-  </si>
-  <si>
-    <t>20.600,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>78.287,00</t>
-  </si>
-  <si>
-    <t>6.590,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>415,63</t>
-  </si>
-  <si>
-    <t>278.633,16</t>
-  </si>
-  <si>
-    <t>15.085,00</t>
-  </si>
-  <si>
-    <t>7.000,02</t>
-  </si>
-  <si>
-    <t>34.807,50</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>36.300,00</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>5360.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>3360.00</t>
+  </si>
+  <si>
+    <t>3000.01</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>245.50</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>98000.00</t>
+  </si>
+  <si>
+    <t>4660.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>79500.00</t>
+  </si>
+  <si>
+    <t>7031.50</t>
+  </si>
+  <si>
+    <t>440638.54</t>
+  </si>
+  <si>
+    <t>248703.84</t>
+  </si>
+  <si>
+    <t>7001.50</t>
+  </si>
+  <si>
+    <t>31991.44</t>
+  </si>
+  <si>
+    <t>13120.00</t>
+  </si>
+  <si>
+    <t>559.60</t>
+  </si>
+  <si>
+    <t>10105.00</t>
+  </si>
+  <si>
+    <t>39250.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>23411.99</t>
+  </si>
+  <si>
+    <t>19476.00</t>
+  </si>
+  <si>
+    <t>60750.00</t>
+  </si>
+  <si>
+    <t>25377.73</t>
+  </si>
+  <si>
+    <t>36209.35</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>947.20</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>52670.18</t>
+  </si>
+  <si>
+    <t>22451.25</t>
+  </si>
+  <si>
+    <t>331.24</t>
+  </si>
+  <si>
+    <t>1910.00</t>
+  </si>
+  <si>
+    <t>1130.85</t>
+  </si>
+  <si>
+    <t>5375.00</t>
+  </si>
+  <si>
+    <t>26100.00</t>
+  </si>
+  <si>
+    <t>73620.70</t>
+  </si>
+  <si>
+    <t>4287.97</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>75870.93</t>
+  </si>
+  <si>
+    <t>11757.60</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>4788.20</t>
+  </si>
+  <si>
+    <t>5579.00</t>
+  </si>
+  <si>
+    <t>7167.54</t>
+  </si>
+  <si>
+    <t>732.26</t>
+  </si>
+  <si>
+    <t>44398.00</t>
+  </si>
+  <si>
+    <t>24.06</t>
+  </si>
+  <si>
+    <t>343200.00</t>
+  </si>
+  <si>
+    <t>4701.80</t>
+  </si>
+  <si>
+    <t>3201.18</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>3374.00</t>
+  </si>
+  <si>
+    <t>6049.00</t>
+  </si>
+  <si>
+    <t>5680.51</t>
+  </si>
+  <si>
+    <t>2436.53</t>
+  </si>
+  <si>
+    <t>1310.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>22650.00</t>
+  </si>
+  <si>
+    <t>5534.44</t>
+  </si>
+  <si>
+    <t>1432.00</t>
+  </si>
+  <si>
+    <t>5280.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>5874.33</t>
+  </si>
+  <si>
+    <t>54410.00</t>
+  </si>
+  <si>
+    <t>2570.00</t>
+  </si>
+  <si>
+    <t>14999.85</t>
+  </si>
+  <si>
+    <t>848.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>52540.00</t>
+  </si>
+  <si>
+    <t>25128.32</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>9690.00</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>4360.00</t>
+  </si>
+  <si>
+    <t>19045.00</t>
+  </si>
+  <si>
+    <t>172.80</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>14908.98</t>
+  </si>
+  <si>
+    <t>5289.00</t>
+  </si>
+  <si>
+    <t>351.48</t>
+  </si>
+  <si>
+    <t>12053.82</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>39.69</t>
+  </si>
+  <si>
+    <t>80.32</t>
+  </si>
+  <si>
+    <t>29752.96</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>7339.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>1567.23</t>
+  </si>
+  <si>
+    <t>2929.87</t>
+  </si>
+  <si>
+    <t>3912.60</t>
+  </si>
+  <si>
+    <t>4760.00</t>
+  </si>
+  <si>
+    <t>18971.98</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>431.22</t>
+  </si>
+  <si>
+    <t>7070.00</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>2682.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>32751.00</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>16053.06</t>
+  </si>
+  <si>
+    <t>6106.00</t>
+  </si>
+  <si>
+    <t>2761.14</t>
+  </si>
+  <si>
+    <t>2639.20</t>
+  </si>
+  <si>
+    <t>771.05</t>
+  </si>
+  <si>
+    <t>324.00</t>
+  </si>
+  <si>
+    <t>321.00</t>
+  </si>
+  <si>
+    <t>134.10</t>
+  </si>
+  <si>
+    <t>7100.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>1008.70</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>34700.00</t>
+  </si>
+  <si>
+    <t>6486.00</t>
+  </si>
+  <si>
+    <t>5483.00</t>
+  </si>
+  <si>
+    <t>6910.00</t>
+  </si>
+  <si>
+    <t>2328.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>114100.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1917.61</t>
+  </si>
+  <si>
+    <t>240.68</t>
+  </si>
+  <si>
+    <t>6076.00</t>
+  </si>
+  <si>
+    <t>2044680.00</t>
+  </si>
+  <si>
+    <t>35943.70</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>32505.44</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3204.50</t>
+  </si>
+  <si>
+    <t>2556.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>17874.50</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>19810.53</t>
+  </si>
+  <si>
+    <t>6570.00</t>
+  </si>
+  <si>
+    <t>32280.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>585.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>7440.00</t>
+  </si>
+  <si>
+    <t>57218.80</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>2953.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1025.00</t>
+  </si>
+  <si>
+    <t>85800.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1521.30</t>
+  </si>
+  <si>
+    <t>14600.00</t>
+  </si>
+  <si>
+    <t>12950.00</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>67.29</t>
+  </si>
+  <si>
+    <t>4670.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>2422.00</t>
+  </si>
+  <si>
+    <t>3453.00</t>
+  </si>
+  <si>
+    <t>6791.00</t>
+  </si>
+  <si>
+    <t>12133.00</t>
+  </si>
+  <si>
+    <t>7300.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>4471.60</t>
+  </si>
+  <si>
+    <t>428.16</t>
+  </si>
+  <si>
+    <t>67743.12</t>
+  </si>
+  <si>
+    <t>359.16</t>
+  </si>
+  <si>
+    <t>3760.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>122826.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>44301.25</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>9138.38</t>
+  </si>
+  <si>
+    <t>4140213.30</t>
+  </si>
+  <si>
+    <t>10892.91</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>83100.00</t>
+  </si>
+  <si>
+    <t>230000.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>245000.00</t>
+  </si>
+  <si>
+    <t>315000.00</t>
+  </si>
+  <si>
+    <t>155000.00</t>
+  </si>
+  <si>
+    <t>70950.35</t>
+  </si>
+  <si>
+    <t>20600.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>78287.00</t>
+  </si>
+  <si>
+    <t>6590.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>415.63</t>
+  </si>
+  <si>
+    <t>278633.16</t>
+  </si>
+  <si>
+    <t>15085.00</t>
+  </si>
+  <si>
+    <t>7000.02</t>
+  </si>
+  <si>
+    <t>34807.50</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>36300.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
   </si>
 </sst>
 </file>
